--- a/Quality reports shared/seed return analysis24.xlsx
+++ b/Quality reports shared/seed return analysis24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="487">
   <si>
     <t>district_name</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>RAK-KAM-SAA-M-071548</t>
-  </si>
-  <si>
-    <t>RAK-KAM-AGU-M-110123</t>
   </si>
   <si>
     <t>RAK-KAM-DAV-M-153210</t>
@@ -1835,7 +1832,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G513"/>
+  <dimension ref="A1:G512"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1878,7 +1875,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -1898,7 +1895,7 @@
         <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F3">
         <v>0.3</v>
@@ -1918,7 +1915,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -1938,7 +1935,7 @@
         <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F5">
         <v>0.3</v>
@@ -1958,14 +1955,11 @@
         <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F6">
         <v>0.3</v>
       </c>
-      <c r="G6">
-        <v>0.6</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
@@ -1981,7 +1975,7 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F7">
         <v>0.3</v>
@@ -1995,16 +1989,16 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F8">
-        <v>0.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2018,13 +2012,13 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
         <v>486</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2041,10 +2035,10 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F10">
-        <v>0.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2058,13 +2052,13 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
         <v>486</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2081,7 +2075,7 @@
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F12">
         <v>0.3</v>
@@ -2095,16 +2089,16 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F13">
-        <v>0.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2118,13 +2112,13 @@
         <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E14" t="s">
         <v>486</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2141,10 +2135,10 @@
         <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F15">
-        <v>0.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2158,13 +2152,13 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
         <v>486</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2181,7 +2175,7 @@
         <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F17">
         <v>0.3</v>
@@ -2201,7 +2195,7 @@
         <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F18">
         <v>0.3</v>
@@ -2215,13 +2209,13 @@
         <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
         <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F19">
         <v>0.3</v>
@@ -2241,7 +2235,7 @@
         <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F20">
         <v>0.3</v>
@@ -2261,7 +2255,7 @@
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F21">
         <v>0.3</v>
@@ -2281,7 +2275,7 @@
         <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F22">
         <v>0.3</v>
@@ -2295,16 +2289,16 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F23">
-        <v>0.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2318,13 +2312,13 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
         <v>486</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2341,10 +2335,10 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F25">
-        <v>0.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2358,13 +2352,13 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E26" t="s">
         <v>486</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2381,7 +2375,7 @@
         <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F27">
         <v>0.3</v>
@@ -2395,13 +2389,13 @@
         <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D28" t="s">
         <v>47</v>
       </c>
       <c r="E28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F28">
         <v>0.3</v>
@@ -2421,7 +2415,7 @@
         <v>48</v>
       </c>
       <c r="E29" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F29">
         <v>0.3</v>
@@ -2441,7 +2435,7 @@
         <v>49</v>
       </c>
       <c r="E30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F30">
         <v>0.3</v>
@@ -2461,10 +2455,10 @@
         <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F31">
-        <v>0.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2478,13 +2472,13 @@
         <v>17</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
         <v>486</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2501,7 +2495,7 @@
         <v>51</v>
       </c>
       <c r="E33" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F33">
         <v>0.3</v>
@@ -2521,10 +2515,10 @@
         <v>52</v>
       </c>
       <c r="E34" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F34">
-        <v>0.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2535,13 +2529,13 @@
         <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
         <v>53</v>
       </c>
       <c r="E35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F35">
         <v>4</v>
@@ -2558,13 +2552,13 @@
         <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E36" t="s">
         <v>486</v>
       </c>
       <c r="F36">
-        <v>4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2581,10 +2575,10 @@
         <v>54</v>
       </c>
       <c r="E37" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F37">
-        <v>0.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2598,13 +2592,13 @@
         <v>18</v>
       </c>
       <c r="D38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s">
         <v>486</v>
       </c>
       <c r="F38">
-        <v>4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2621,10 +2615,10 @@
         <v>55</v>
       </c>
       <c r="E39" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F39">
-        <v>0.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2638,13 +2632,13 @@
         <v>18</v>
       </c>
       <c r="D40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
         <v>486</v>
       </c>
       <c r="F40">
-        <v>4</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2652,19 +2646,19 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D41" t="s">
         <v>56</v>
       </c>
       <c r="E41" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F41">
-        <v>0.3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2678,13 +2672,13 @@
         <v>19</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E42" t="s">
         <v>486</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2695,16 +2689,16 @@
         <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D43" t="s">
         <v>57</v>
       </c>
       <c r="E43" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F43">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2721,7 +2715,7 @@
         <v>58</v>
       </c>
       <c r="E44" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F44">
         <v>4</v>
@@ -2738,13 +2732,13 @@
         <v>20</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E45" t="s">
         <v>486</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2761,7 +2755,7 @@
         <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F46">
         <v>0.4</v>
@@ -2775,16 +2769,16 @@
         <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
         <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F47">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2801,7 +2795,7 @@
         <v>61</v>
       </c>
       <c r="E48" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F48">
         <v>4</v>
@@ -2821,7 +2815,7 @@
         <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F49">
         <v>4</v>
@@ -2844,7 +2838,7 @@
         <v>486</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2861,10 +2855,10 @@
         <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F51">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2881,7 +2875,7 @@
         <v>65</v>
       </c>
       <c r="E52" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -2898,13 +2892,13 @@
         <v>21</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
         <v>486</v>
       </c>
       <c r="F53">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2921,10 +2915,10 @@
         <v>66</v>
       </c>
       <c r="E54" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F54">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2941,7 +2935,7 @@
         <v>67</v>
       </c>
       <c r="E55" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F55">
         <v>4</v>
@@ -2958,13 +2952,13 @@
         <v>21</v>
       </c>
       <c r="D56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E56" t="s">
         <v>486</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2981,10 +2975,10 @@
         <v>68</v>
       </c>
       <c r="E57" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F57">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2998,13 +2992,13 @@
         <v>21</v>
       </c>
       <c r="D58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E58" t="s">
         <v>486</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3021,10 +3015,10 @@
         <v>69</v>
       </c>
       <c r="E59" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F59">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3038,13 +3032,13 @@
         <v>21</v>
       </c>
       <c r="D60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E60" t="s">
         <v>486</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3061,10 +3055,10 @@
         <v>70</v>
       </c>
       <c r="E61" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F61">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3078,13 +3072,13 @@
         <v>21</v>
       </c>
       <c r="D62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E62" t="s">
         <v>486</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3101,10 +3095,10 @@
         <v>71</v>
       </c>
       <c r="E63" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F63">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3118,13 +3112,13 @@
         <v>21</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E64" t="s">
         <v>486</v>
       </c>
       <c r="F64">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3141,10 +3135,10 @@
         <v>72</v>
       </c>
       <c r="E65" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F65">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3158,13 +3152,13 @@
         <v>21</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E66" t="s">
         <v>486</v>
       </c>
       <c r="F66">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3175,16 +3169,16 @@
         <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D67" t="s">
         <v>73</v>
       </c>
       <c r="E67" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F67">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3198,13 +3192,13 @@
         <v>22</v>
       </c>
       <c r="D68" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E68" t="s">
         <v>486</v>
       </c>
       <c r="F68">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3215,16 +3209,16 @@
         <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D69" t="s">
         <v>74</v>
       </c>
       <c r="E69" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F69">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3241,7 +3235,7 @@
         <v>75</v>
       </c>
       <c r="E70" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F70">
         <v>4</v>
@@ -3261,7 +3255,7 @@
         <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F71">
         <v>4</v>
@@ -3278,13 +3272,13 @@
         <v>23</v>
       </c>
       <c r="D72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E72" t="s">
         <v>486</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3292,16 +3286,16 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D73" t="s">
         <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F73">
         <v>0.4</v>
@@ -3321,7 +3315,7 @@
         <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F74">
         <v>0.4</v>
@@ -3341,7 +3335,7 @@
         <v>79</v>
       </c>
       <c r="E75" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F75">
         <v>0.4</v>
@@ -3361,7 +3355,7 @@
         <v>80</v>
       </c>
       <c r="E76" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F76">
         <v>0.4</v>
@@ -3381,7 +3375,7 @@
         <v>81</v>
       </c>
       <c r="E77" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F77">
         <v>0.4</v>
@@ -3401,7 +3395,7 @@
         <v>82</v>
       </c>
       <c r="E78" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F78">
         <v>0.4</v>
@@ -3421,7 +3415,7 @@
         <v>83</v>
       </c>
       <c r="E79" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F79">
         <v>0.4</v>
@@ -3441,7 +3435,7 @@
         <v>84</v>
       </c>
       <c r="E80" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F80">
         <v>0.4</v>
@@ -3461,7 +3455,7 @@
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F81">
         <v>0.4</v>
@@ -3481,7 +3475,7 @@
         <v>86</v>
       </c>
       <c r="E82" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F82">
         <v>0.4</v>
@@ -3501,7 +3495,7 @@
         <v>87</v>
       </c>
       <c r="E83" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F83">
         <v>0.4</v>
@@ -3521,7 +3515,7 @@
         <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F84">
         <v>0.4</v>
@@ -3541,7 +3535,7 @@
         <v>89</v>
       </c>
       <c r="E85" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F85">
         <v>0.4</v>
@@ -3561,7 +3555,7 @@
         <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F86">
         <v>0.4</v>
@@ -3581,7 +3575,7 @@
         <v>91</v>
       </c>
       <c r="E87" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F87">
         <v>0.4</v>
@@ -3601,7 +3595,7 @@
         <v>92</v>
       </c>
       <c r="E88" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F88">
         <v>0.4</v>
@@ -3621,7 +3615,7 @@
         <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F89">
         <v>0.4</v>
@@ -3641,7 +3635,7 @@
         <v>94</v>
       </c>
       <c r="E90" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F90">
         <v>0.4</v>
@@ -3661,7 +3655,7 @@
         <v>95</v>
       </c>
       <c r="E91" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F91">
         <v>0.4</v>
@@ -3681,7 +3675,7 @@
         <v>96</v>
       </c>
       <c r="E92" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F92">
         <v>0.4</v>
@@ -3701,7 +3695,7 @@
         <v>97</v>
       </c>
       <c r="E93" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F93">
         <v>0.4</v>
@@ -3721,7 +3715,7 @@
         <v>98</v>
       </c>
       <c r="E94" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F94">
         <v>0.4</v>
@@ -3741,7 +3735,7 @@
         <v>99</v>
       </c>
       <c r="E95" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F95">
         <v>0.4</v>
@@ -3761,7 +3755,7 @@
         <v>100</v>
       </c>
       <c r="E96" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F96">
         <v>0.4</v>
@@ -3781,7 +3775,7 @@
         <v>101</v>
       </c>
       <c r="E97" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F97">
         <v>0.4</v>
@@ -3801,7 +3795,7 @@
         <v>102</v>
       </c>
       <c r="E98" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F98">
         <v>0.4</v>
@@ -3821,7 +3815,7 @@
         <v>103</v>
       </c>
       <c r="E99" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F99">
         <v>0.4</v>
@@ -3841,7 +3835,7 @@
         <v>104</v>
       </c>
       <c r="E100" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F100">
         <v>0.4</v>
@@ -3861,7 +3855,7 @@
         <v>105</v>
       </c>
       <c r="E101" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F101">
         <v>0.4</v>
@@ -3881,7 +3875,7 @@
         <v>106</v>
       </c>
       <c r="E102" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F102">
         <v>0.4</v>
@@ -3901,7 +3895,7 @@
         <v>107</v>
       </c>
       <c r="E103" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F103">
         <v>0.4</v>
@@ -3921,7 +3915,7 @@
         <v>108</v>
       </c>
       <c r="E104" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F104">
         <v>0.4</v>
@@ -3941,7 +3935,7 @@
         <v>109</v>
       </c>
       <c r="E105" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F105">
         <v>0.4</v>
@@ -3961,7 +3955,7 @@
         <v>110</v>
       </c>
       <c r="E106" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F106">
         <v>0.4</v>
@@ -3981,7 +3975,7 @@
         <v>111</v>
       </c>
       <c r="E107" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F107">
         <v>0.4</v>
@@ -4001,7 +3995,7 @@
         <v>112</v>
       </c>
       <c r="E108" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F108">
         <v>0.4</v>
@@ -4021,7 +4015,7 @@
         <v>113</v>
       </c>
       <c r="E109" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F109">
         <v>0.4</v>
@@ -4041,7 +4035,7 @@
         <v>114</v>
       </c>
       <c r="E110" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F110">
         <v>0.4</v>
@@ -4061,7 +4055,7 @@
         <v>115</v>
       </c>
       <c r="E111" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F111">
         <v>0.4</v>
@@ -4081,7 +4075,7 @@
         <v>116</v>
       </c>
       <c r="E112" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F112">
         <v>0.4</v>
@@ -4101,7 +4095,7 @@
         <v>117</v>
       </c>
       <c r="E113" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F113">
         <v>0.4</v>
@@ -4121,7 +4115,7 @@
         <v>118</v>
       </c>
       <c r="E114" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F114">
         <v>0.4</v>
@@ -4141,7 +4135,7 @@
         <v>119</v>
       </c>
       <c r="E115" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F115">
         <v>0.4</v>
@@ -4161,7 +4155,7 @@
         <v>120</v>
       </c>
       <c r="E116" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F116">
         <v>0.4</v>
@@ -4181,7 +4175,7 @@
         <v>121</v>
       </c>
       <c r="E117" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F117">
         <v>0.4</v>
@@ -4201,7 +4195,7 @@
         <v>122</v>
       </c>
       <c r="E118" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F118">
         <v>0.4</v>
@@ -4221,7 +4215,7 @@
         <v>123</v>
       </c>
       <c r="E119" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F119">
         <v>0.4</v>
@@ -4241,7 +4235,7 @@
         <v>124</v>
       </c>
       <c r="E120" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F120">
         <v>0.4</v>
@@ -4261,7 +4255,7 @@
         <v>125</v>
       </c>
       <c r="E121" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F121">
         <v>0.4</v>
@@ -4281,7 +4275,7 @@
         <v>126</v>
       </c>
       <c r="E122" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F122">
         <v>0.4</v>
@@ -4301,7 +4295,7 @@
         <v>127</v>
       </c>
       <c r="E123" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F123">
         <v>0.4</v>
@@ -4321,7 +4315,7 @@
         <v>128</v>
       </c>
       <c r="E124" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F124">
         <v>0.4</v>
@@ -4341,7 +4335,7 @@
         <v>129</v>
       </c>
       <c r="E125" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F125">
         <v>0.4</v>
@@ -4361,7 +4355,7 @@
         <v>130</v>
       </c>
       <c r="E126" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F126">
         <v>0.4</v>
@@ -4381,7 +4375,7 @@
         <v>131</v>
       </c>
       <c r="E127" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F127">
         <v>0.4</v>
@@ -4401,7 +4395,7 @@
         <v>132</v>
       </c>
       <c r="E128" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F128">
         <v>0.4</v>
@@ -4421,7 +4415,7 @@
         <v>133</v>
       </c>
       <c r="E129" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F129">
         <v>0.4</v>
@@ -4441,7 +4435,7 @@
         <v>134</v>
       </c>
       <c r="E130" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F130">
         <v>0.4</v>
@@ -4461,7 +4455,7 @@
         <v>135</v>
       </c>
       <c r="E131" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F131">
         <v>0.4</v>
@@ -4481,7 +4475,7 @@
         <v>136</v>
       </c>
       <c r="E132" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F132">
         <v>0.4</v>
@@ -4501,7 +4495,7 @@
         <v>137</v>
       </c>
       <c r="E133" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F133">
         <v>0.4</v>
@@ -4521,7 +4515,7 @@
         <v>138</v>
       </c>
       <c r="E134" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F134">
         <v>0.4</v>
@@ -4541,7 +4535,7 @@
         <v>139</v>
       </c>
       <c r="E135" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F135">
         <v>0.4</v>
@@ -4561,7 +4555,7 @@
         <v>140</v>
       </c>
       <c r="E136" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F136">
         <v>0.4</v>
@@ -4581,7 +4575,7 @@
         <v>141</v>
       </c>
       <c r="E137" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F137">
         <v>0.4</v>
@@ -4601,7 +4595,7 @@
         <v>142</v>
       </c>
       <c r="E138" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F138">
         <v>0.4</v>
@@ -4621,7 +4615,7 @@
         <v>143</v>
       </c>
       <c r="E139" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F139">
         <v>0.4</v>
@@ -4641,7 +4635,7 @@
         <v>144</v>
       </c>
       <c r="E140" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F140">
         <v>0.4</v>
@@ -4661,7 +4655,7 @@
         <v>145</v>
       </c>
       <c r="E141" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F141">
         <v>0.4</v>
@@ -4681,7 +4675,7 @@
         <v>146</v>
       </c>
       <c r="E142" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F142">
         <v>0.4</v>
@@ -4701,7 +4695,7 @@
         <v>147</v>
       </c>
       <c r="E143" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F143">
         <v>0.4</v>
@@ -4721,7 +4715,7 @@
         <v>148</v>
       </c>
       <c r="E144" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F144">
         <v>0.4</v>
@@ -4741,7 +4735,7 @@
         <v>149</v>
       </c>
       <c r="E145" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F145">
         <v>0.4</v>
@@ -4761,7 +4755,7 @@
         <v>150</v>
       </c>
       <c r="E146" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F146">
         <v>0.4</v>
@@ -4781,7 +4775,7 @@
         <v>151</v>
       </c>
       <c r="E147" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F147">
         <v>0.4</v>
@@ -4801,7 +4795,7 @@
         <v>152</v>
       </c>
       <c r="E148" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F148">
         <v>0.4</v>
@@ -4821,7 +4815,7 @@
         <v>153</v>
       </c>
       <c r="E149" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F149">
         <v>0.4</v>
@@ -4841,7 +4835,7 @@
         <v>154</v>
       </c>
       <c r="E150" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F150">
         <v>0.4</v>
@@ -4861,7 +4855,7 @@
         <v>155</v>
       </c>
       <c r="E151" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F151">
         <v>0.4</v>
@@ -4881,7 +4875,7 @@
         <v>156</v>
       </c>
       <c r="E152" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F152">
         <v>0.4</v>
@@ -4901,7 +4895,7 @@
         <v>157</v>
       </c>
       <c r="E153" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F153">
         <v>0.4</v>
@@ -4921,7 +4915,7 @@
         <v>158</v>
       </c>
       <c r="E154" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F154">
         <v>0.4</v>
@@ -4941,7 +4935,7 @@
         <v>159</v>
       </c>
       <c r="E155" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F155">
         <v>0.4</v>
@@ -4961,7 +4955,7 @@
         <v>160</v>
       </c>
       <c r="E156" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F156">
         <v>0.4</v>
@@ -4981,7 +4975,7 @@
         <v>161</v>
       </c>
       <c r="E157" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F157">
         <v>0.4</v>
@@ -5001,7 +4995,7 @@
         <v>162</v>
       </c>
       <c r="E158" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F158">
         <v>0.4</v>
@@ -5021,7 +5015,7 @@
         <v>163</v>
       </c>
       <c r="E159" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F159">
         <v>0.4</v>
@@ -5041,7 +5035,7 @@
         <v>164</v>
       </c>
       <c r="E160" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F160">
         <v>0.4</v>
@@ -5061,7 +5055,7 @@
         <v>165</v>
       </c>
       <c r="E161" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F161">
         <v>0.4</v>
@@ -5081,7 +5075,7 @@
         <v>166</v>
       </c>
       <c r="E162" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F162">
         <v>0.4</v>
@@ -5101,7 +5095,7 @@
         <v>167</v>
       </c>
       <c r="E163" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F163">
         <v>0.4</v>
@@ -5121,7 +5115,7 @@
         <v>168</v>
       </c>
       <c r="E164" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F164">
         <v>0.4</v>
@@ -5141,7 +5135,7 @@
         <v>169</v>
       </c>
       <c r="E165" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F165">
         <v>0.4</v>
@@ -5161,7 +5155,7 @@
         <v>170</v>
       </c>
       <c r="E166" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F166">
         <v>0.4</v>
@@ -5181,10 +5175,10 @@
         <v>171</v>
       </c>
       <c r="E167" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F167">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5198,13 +5192,13 @@
         <v>24</v>
       </c>
       <c r="D168" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E168" t="s">
         <v>486</v>
       </c>
       <c r="F168">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5221,7 +5215,7 @@
         <v>172</v>
       </c>
       <c r="E169" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F169">
         <v>0.4</v>
@@ -5241,7 +5235,7 @@
         <v>173</v>
       </c>
       <c r="E170" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F170">
         <v>0.4</v>
@@ -5261,7 +5255,7 @@
         <v>174</v>
       </c>
       <c r="E171" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F171">
         <v>0.4</v>
@@ -5281,7 +5275,7 @@
         <v>175</v>
       </c>
       <c r="E172" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F172">
         <v>0.4</v>
@@ -5301,7 +5295,7 @@
         <v>176</v>
       </c>
       <c r="E173" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F173">
         <v>0.4</v>
@@ -5321,7 +5315,7 @@
         <v>177</v>
       </c>
       <c r="E174" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F174">
         <v>0.4</v>
@@ -5341,7 +5335,7 @@
         <v>178</v>
       </c>
       <c r="E175" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F175">
         <v>0.4</v>
@@ -5361,7 +5355,7 @@
         <v>179</v>
       </c>
       <c r="E176" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F176">
         <v>0.4</v>
@@ -5381,7 +5375,7 @@
         <v>180</v>
       </c>
       <c r="E177" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F177">
         <v>0.4</v>
@@ -5401,7 +5395,7 @@
         <v>181</v>
       </c>
       <c r="E178" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F178">
         <v>0.4</v>
@@ -5421,7 +5415,7 @@
         <v>182</v>
       </c>
       <c r="E179" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F179">
         <v>0.4</v>
@@ -5441,7 +5435,7 @@
         <v>183</v>
       </c>
       <c r="E180" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F180">
         <v>0.4</v>
@@ -5461,10 +5455,10 @@
         <v>184</v>
       </c>
       <c r="E181" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F181">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -5478,13 +5472,13 @@
         <v>24</v>
       </c>
       <c r="D182" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E182" t="s">
         <v>486</v>
       </c>
       <c r="F182">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -5501,10 +5495,10 @@
         <v>185</v>
       </c>
       <c r="E183" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F183">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -5518,13 +5512,13 @@
         <v>24</v>
       </c>
       <c r="D184" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E184" t="s">
         <v>486</v>
       </c>
       <c r="F184">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -5541,7 +5535,7 @@
         <v>186</v>
       </c>
       <c r="E185" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F185">
         <v>0.4</v>
@@ -5561,7 +5555,7 @@
         <v>187</v>
       </c>
       <c r="E186" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F186">
         <v>0.4</v>
@@ -5581,7 +5575,7 @@
         <v>188</v>
       </c>
       <c r="E187" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F187">
         <v>0.4</v>
@@ -5601,7 +5595,7 @@
         <v>189</v>
       </c>
       <c r="E188" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F188">
         <v>0.4</v>
@@ -5621,7 +5615,7 @@
         <v>190</v>
       </c>
       <c r="E189" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F189">
         <v>0.4</v>
@@ -5641,7 +5635,7 @@
         <v>191</v>
       </c>
       <c r="E190" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F190">
         <v>0.4</v>
@@ -5661,7 +5655,7 @@
         <v>192</v>
       </c>
       <c r="E191" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F191">
         <v>0.4</v>
@@ -5681,7 +5675,7 @@
         <v>193</v>
       </c>
       <c r="E192" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F192">
         <v>0.4</v>
@@ -5701,7 +5695,7 @@
         <v>194</v>
       </c>
       <c r="E193" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F193">
         <v>0.4</v>
@@ -5721,7 +5715,7 @@
         <v>195</v>
       </c>
       <c r="E194" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F194">
         <v>0.4</v>
@@ -5741,7 +5735,7 @@
         <v>196</v>
       </c>
       <c r="E195" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F195">
         <v>0.4</v>
@@ -5761,7 +5755,7 @@
         <v>197</v>
       </c>
       <c r="E196" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F196">
         <v>0.4</v>
@@ -5781,7 +5775,7 @@
         <v>198</v>
       </c>
       <c r="E197" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F197">
         <v>0.4</v>
@@ -5801,7 +5795,7 @@
         <v>199</v>
       </c>
       <c r="E198" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F198">
         <v>0.4</v>
@@ -5821,7 +5815,7 @@
         <v>200</v>
       </c>
       <c r="E199" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F199">
         <v>0.4</v>
@@ -5841,7 +5835,7 @@
         <v>201</v>
       </c>
       <c r="E200" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F200">
         <v>0.4</v>
@@ -5861,7 +5855,7 @@
         <v>202</v>
       </c>
       <c r="E201" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F201">
         <v>0.4</v>
@@ -5881,7 +5875,7 @@
         <v>203</v>
       </c>
       <c r="E202" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F202">
         <v>0.4</v>
@@ -5901,7 +5895,7 @@
         <v>204</v>
       </c>
       <c r="E203" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F203">
         <v>0.4</v>
@@ -5921,7 +5915,7 @@
         <v>205</v>
       </c>
       <c r="E204" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F204">
         <v>0.4</v>
@@ -5941,7 +5935,7 @@
         <v>206</v>
       </c>
       <c r="E205" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F205">
         <v>0.4</v>
@@ -5961,7 +5955,7 @@
         <v>207</v>
       </c>
       <c r="E206" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F206">
         <v>0.4</v>
@@ -5981,7 +5975,7 @@
         <v>208</v>
       </c>
       <c r="E207" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F207">
         <v>0.4</v>
@@ -6001,7 +5995,7 @@
         <v>209</v>
       </c>
       <c r="E208" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F208">
         <v>0.4</v>
@@ -6021,7 +6015,7 @@
         <v>210</v>
       </c>
       <c r="E209" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F209">
         <v>0.4</v>
@@ -6041,7 +6035,7 @@
         <v>211</v>
       </c>
       <c r="E210" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F210">
         <v>0.4</v>
@@ -6061,7 +6055,7 @@
         <v>212</v>
       </c>
       <c r="E211" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F211">
         <v>0.4</v>
@@ -6081,7 +6075,7 @@
         <v>213</v>
       </c>
       <c r="E212" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F212">
         <v>0.4</v>
@@ -6101,7 +6095,7 @@
         <v>214</v>
       </c>
       <c r="E213" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F213">
         <v>0.4</v>
@@ -6121,7 +6115,7 @@
         <v>215</v>
       </c>
       <c r="E214" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F214">
         <v>0.4</v>
@@ -6141,7 +6135,7 @@
         <v>216</v>
       </c>
       <c r="E215" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F215">
         <v>0.4</v>
@@ -6161,7 +6155,7 @@
         <v>217</v>
       </c>
       <c r="E216" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F216">
         <v>0.4</v>
@@ -6181,7 +6175,7 @@
         <v>218</v>
       </c>
       <c r="E217" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F217">
         <v>0.4</v>
@@ -6201,7 +6195,7 @@
         <v>219</v>
       </c>
       <c r="E218" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F218">
         <v>0.4</v>
@@ -6221,7 +6215,7 @@
         <v>220</v>
       </c>
       <c r="E219" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F219">
         <v>0.4</v>
@@ -6241,7 +6235,7 @@
         <v>221</v>
       </c>
       <c r="E220" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F220">
         <v>0.4</v>
@@ -6261,7 +6255,7 @@
         <v>222</v>
       </c>
       <c r="E221" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F221">
         <v>0.4</v>
@@ -6281,7 +6275,7 @@
         <v>223</v>
       </c>
       <c r="E222" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F222">
         <v>0.4</v>
@@ -6301,7 +6295,7 @@
         <v>224</v>
       </c>
       <c r="E223" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F223">
         <v>0.4</v>
@@ -6321,7 +6315,7 @@
         <v>225</v>
       </c>
       <c r="E224" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F224">
         <v>0.4</v>
@@ -6341,7 +6335,7 @@
         <v>226</v>
       </c>
       <c r="E225" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F225">
         <v>0.4</v>
@@ -6361,7 +6355,7 @@
         <v>227</v>
       </c>
       <c r="E226" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F226">
         <v>0.4</v>
@@ -6381,7 +6375,7 @@
         <v>228</v>
       </c>
       <c r="E227" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F227">
         <v>0.4</v>
@@ -6401,7 +6395,7 @@
         <v>229</v>
       </c>
       <c r="E228" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F228">
         <v>0.4</v>
@@ -6421,7 +6415,7 @@
         <v>230</v>
       </c>
       <c r="E229" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F229">
         <v>0.4</v>
@@ -6441,7 +6435,7 @@
         <v>231</v>
       </c>
       <c r="E230" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F230">
         <v>0.4</v>
@@ -6461,7 +6455,7 @@
         <v>232</v>
       </c>
       <c r="E231" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F231">
         <v>0.4</v>
@@ -6481,7 +6475,7 @@
         <v>233</v>
       </c>
       <c r="E232" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F232">
         <v>0.4</v>
@@ -6501,7 +6495,7 @@
         <v>234</v>
       </c>
       <c r="E233" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F233">
         <v>0.4</v>
@@ -6521,7 +6515,7 @@
         <v>235</v>
       </c>
       <c r="E234" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F234">
         <v>0.4</v>
@@ -6541,7 +6535,7 @@
         <v>236</v>
       </c>
       <c r="E235" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F235">
         <v>0.4</v>
@@ -6561,7 +6555,7 @@
         <v>237</v>
       </c>
       <c r="E236" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F236">
         <v>0.4</v>
@@ -6581,7 +6575,7 @@
         <v>238</v>
       </c>
       <c r="E237" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F237">
         <v>0.4</v>
@@ -6601,7 +6595,7 @@
         <v>239</v>
       </c>
       <c r="E238" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F238">
         <v>0.4</v>
@@ -6621,7 +6615,7 @@
         <v>240</v>
       </c>
       <c r="E239" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F239">
         <v>0.4</v>
@@ -6641,7 +6635,7 @@
         <v>241</v>
       </c>
       <c r="E240" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F240">
         <v>0.4</v>
@@ -6661,7 +6655,7 @@
         <v>242</v>
       </c>
       <c r="E241" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F241">
         <v>0.4</v>
@@ -6681,7 +6675,7 @@
         <v>243</v>
       </c>
       <c r="E242" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F242">
         <v>0.4</v>
@@ -6701,7 +6695,7 @@
         <v>244</v>
       </c>
       <c r="E243" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F243">
         <v>0.4</v>
@@ -6721,7 +6715,7 @@
         <v>245</v>
       </c>
       <c r="E244" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F244">
         <v>0.4</v>
@@ -6741,7 +6735,7 @@
         <v>246</v>
       </c>
       <c r="E245" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F245">
         <v>0.4</v>
@@ -6761,7 +6755,7 @@
         <v>247</v>
       </c>
       <c r="E246" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F246">
         <v>0.4</v>
@@ -6781,7 +6775,7 @@
         <v>248</v>
       </c>
       <c r="E247" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F247">
         <v>0.4</v>
@@ -6801,7 +6795,7 @@
         <v>249</v>
       </c>
       <c r="E248" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F248">
         <v>0.4</v>
@@ -6821,7 +6815,7 @@
         <v>250</v>
       </c>
       <c r="E249" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F249">
         <v>0.4</v>
@@ -6841,7 +6835,7 @@
         <v>251</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F250">
         <v>0.4</v>
@@ -6861,7 +6855,7 @@
         <v>252</v>
       </c>
       <c r="E251" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F251">
         <v>0.4</v>
@@ -6881,7 +6875,7 @@
         <v>253</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F252">
         <v>0.4</v>
@@ -6901,7 +6895,7 @@
         <v>254</v>
       </c>
       <c r="E253" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F253">
         <v>0.4</v>
@@ -6921,7 +6915,7 @@
         <v>255</v>
       </c>
       <c r="E254" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F254">
         <v>0.4</v>
@@ -6941,7 +6935,7 @@
         <v>256</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F255">
         <v>0.4</v>
@@ -6961,7 +6955,7 @@
         <v>257</v>
       </c>
       <c r="E256" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F256">
         <v>0.4</v>
@@ -6981,7 +6975,7 @@
         <v>258</v>
       </c>
       <c r="E257" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F257">
         <v>0.4</v>
@@ -7001,7 +6995,7 @@
         <v>259</v>
       </c>
       <c r="E258" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F258">
         <v>0.4</v>
@@ -7021,7 +7015,7 @@
         <v>260</v>
       </c>
       <c r="E259" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F259">
         <v>0.4</v>
@@ -7041,7 +7035,7 @@
         <v>261</v>
       </c>
       <c r="E260" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F260">
         <v>0.4</v>
@@ -7061,7 +7055,7 @@
         <v>262</v>
       </c>
       <c r="E261" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F261">
         <v>0.4</v>
@@ -7075,13 +7069,13 @@
         <v>10</v>
       </c>
       <c r="C262" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D262" t="s">
         <v>263</v>
       </c>
       <c r="E262" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F262">
         <v>0.4</v>
@@ -7101,10 +7095,10 @@
         <v>264</v>
       </c>
       <c r="E263" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F263">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -7121,7 +7115,7 @@
         <v>265</v>
       </c>
       <c r="E264" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F264">
         <v>4</v>
@@ -7138,13 +7132,13 @@
         <v>25</v>
       </c>
       <c r="D265" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E265" t="s">
         <v>486</v>
       </c>
       <c r="F265">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -7161,10 +7155,10 @@
         <v>266</v>
       </c>
       <c r="E266" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F266">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -7178,13 +7172,13 @@
         <v>25</v>
       </c>
       <c r="D267" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E267" t="s">
         <v>486</v>
       </c>
       <c r="F267">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -7201,10 +7195,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F268">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -7221,7 +7215,7 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F269">
         <v>4</v>
@@ -7238,13 +7232,13 @@
         <v>25</v>
       </c>
       <c r="D270" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E270" t="s">
         <v>486</v>
       </c>
       <c r="F270">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -7255,16 +7249,16 @@
         <v>10</v>
       </c>
       <c r="C271" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D271" t="s">
         <v>269</v>
       </c>
       <c r="E271" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F271">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -7278,13 +7272,13 @@
         <v>26</v>
       </c>
       <c r="D272" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E272" t="s">
         <v>486</v>
       </c>
       <c r="F272">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -7301,10 +7295,10 @@
         <v>270</v>
       </c>
       <c r="E273" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F273">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -7318,13 +7312,13 @@
         <v>26</v>
       </c>
       <c r="D274" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E274" t="s">
         <v>486</v>
       </c>
       <c r="F274">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -7341,7 +7335,7 @@
         <v>271</v>
       </c>
       <c r="E275" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F275">
         <v>0.4</v>
@@ -7361,7 +7355,7 @@
         <v>272</v>
       </c>
       <c r="E276" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F276">
         <v>0.4</v>
@@ -7381,7 +7375,7 @@
         <v>273</v>
       </c>
       <c r="E277" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F277">
         <v>0.4</v>
@@ -7401,7 +7395,7 @@
         <v>274</v>
       </c>
       <c r="E278" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F278">
         <v>0.4</v>
@@ -7421,7 +7415,7 @@
         <v>275</v>
       </c>
       <c r="E279" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F279">
         <v>0.4</v>
@@ -7441,10 +7435,10 @@
         <v>276</v>
       </c>
       <c r="E280" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F280">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -7458,13 +7452,13 @@
         <v>26</v>
       </c>
       <c r="D281" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E281" t="s">
         <v>486</v>
       </c>
       <c r="F281">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -7481,7 +7475,7 @@
         <v>277</v>
       </c>
       <c r="E282" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F282">
         <v>0.4</v>
@@ -7501,7 +7495,7 @@
         <v>278</v>
       </c>
       <c r="E283" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F283">
         <v>0.4</v>
@@ -7521,10 +7515,10 @@
         <v>279</v>
       </c>
       <c r="E284" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F284">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -7544,7 +7538,7 @@
         <v>486</v>
       </c>
       <c r="F285">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -7561,7 +7555,7 @@
         <v>281</v>
       </c>
       <c r="E286" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F286">
         <v>0.4</v>
@@ -7581,7 +7575,7 @@
         <v>282</v>
       </c>
       <c r="E287" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F287">
         <v>0.4</v>
@@ -7601,7 +7595,7 @@
         <v>283</v>
       </c>
       <c r="E288" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F288">
         <v>0.4</v>
@@ -7621,7 +7615,7 @@
         <v>284</v>
       </c>
       <c r="E289" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F289">
         <v>0.4</v>
@@ -7641,7 +7635,7 @@
         <v>285</v>
       </c>
       <c r="E290" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F290">
         <v>0.4</v>
@@ -7661,7 +7655,7 @@
         <v>286</v>
       </c>
       <c r="E291" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F291">
         <v>0.4</v>
@@ -7681,7 +7675,7 @@
         <v>287</v>
       </c>
       <c r="E292" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F292">
         <v>0.4</v>
@@ -7701,7 +7695,7 @@
         <v>288</v>
       </c>
       <c r="E293" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F293">
         <v>0.4</v>
@@ -7721,7 +7715,7 @@
         <v>289</v>
       </c>
       <c r="E294" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F294">
         <v>0.4</v>
@@ -7741,7 +7735,7 @@
         <v>290</v>
       </c>
       <c r="E295" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F295">
         <v>0.4</v>
@@ -7761,7 +7755,7 @@
         <v>291</v>
       </c>
       <c r="E296" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F296">
         <v>0.4</v>
@@ -7781,7 +7775,7 @@
         <v>292</v>
       </c>
       <c r="E297" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F297">
         <v>0.4</v>
@@ -7801,7 +7795,7 @@
         <v>293</v>
       </c>
       <c r="E298" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F298">
         <v>0.4</v>
@@ -7821,7 +7815,7 @@
         <v>294</v>
       </c>
       <c r="E299" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F299">
         <v>0.4</v>
@@ -7841,10 +7835,10 @@
         <v>295</v>
       </c>
       <c r="E300" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F300">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -7858,13 +7852,13 @@
         <v>26</v>
       </c>
       <c r="D301" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E301" t="s">
         <v>486</v>
       </c>
       <c r="F301">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -7881,7 +7875,7 @@
         <v>296</v>
       </c>
       <c r="E302" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F302">
         <v>0.4</v>
@@ -7901,7 +7895,7 @@
         <v>297</v>
       </c>
       <c r="E303" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F303">
         <v>0.4</v>
@@ -7921,7 +7915,7 @@
         <v>298</v>
       </c>
       <c r="E304" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F304">
         <v>0.4</v>
@@ -7941,7 +7935,7 @@
         <v>299</v>
       </c>
       <c r="E305" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F305">
         <v>0.4</v>
@@ -7961,7 +7955,7 @@
         <v>300</v>
       </c>
       <c r="E306" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F306">
         <v>0.4</v>
@@ -7981,7 +7975,7 @@
         <v>301</v>
       </c>
       <c r="E307" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F307">
         <v>0.4</v>
@@ -8001,10 +7995,10 @@
         <v>302</v>
       </c>
       <c r="E308" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F308">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -8018,13 +8012,13 @@
         <v>26</v>
       </c>
       <c r="D309" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E309" t="s">
         <v>486</v>
       </c>
       <c r="F309">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -8041,7 +8035,7 @@
         <v>303</v>
       </c>
       <c r="E310" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F310">
         <v>0.4</v>
@@ -8061,7 +8055,7 @@
         <v>304</v>
       </c>
       <c r="E311" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F311">
         <v>0.4</v>
@@ -8081,7 +8075,7 @@
         <v>305</v>
       </c>
       <c r="E312" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F312">
         <v>0.4</v>
@@ -8101,7 +8095,7 @@
         <v>306</v>
       </c>
       <c r="E313" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F313">
         <v>0.4</v>
@@ -8121,7 +8115,7 @@
         <v>307</v>
       </c>
       <c r="E314" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F314">
         <v>0.4</v>
@@ -8141,7 +8135,7 @@
         <v>308</v>
       </c>
       <c r="E315" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F315">
         <v>0.4</v>
@@ -8161,7 +8155,7 @@
         <v>309</v>
       </c>
       <c r="E316" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F316">
         <v>0.4</v>
@@ -8181,7 +8175,7 @@
         <v>310</v>
       </c>
       <c r="E317" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F317">
         <v>0.4</v>
@@ -8201,7 +8195,7 @@
         <v>311</v>
       </c>
       <c r="E318" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F318">
         <v>0.4</v>
@@ -8221,7 +8215,7 @@
         <v>312</v>
       </c>
       <c r="E319" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F319">
         <v>0.4</v>
@@ -8241,7 +8235,7 @@
         <v>313</v>
       </c>
       <c r="E320" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F320">
         <v>0.4</v>
@@ -8261,7 +8255,7 @@
         <v>314</v>
       </c>
       <c r="E321" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F321">
         <v>0.4</v>
@@ -8281,7 +8275,7 @@
         <v>315</v>
       </c>
       <c r="E322" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F322">
         <v>0.4</v>
@@ -8301,7 +8295,7 @@
         <v>316</v>
       </c>
       <c r="E323" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F323">
         <v>0.4</v>
@@ -8321,7 +8315,7 @@
         <v>317</v>
       </c>
       <c r="E324" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F324">
         <v>0.4</v>
@@ -8341,7 +8335,7 @@
         <v>318</v>
       </c>
       <c r="E325" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F325">
         <v>0.4</v>
@@ -8361,7 +8355,7 @@
         <v>319</v>
       </c>
       <c r="E326" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F326">
         <v>0.4</v>
@@ -8381,7 +8375,7 @@
         <v>320</v>
       </c>
       <c r="E327" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F327">
         <v>0.4</v>
@@ -8401,7 +8395,7 @@
         <v>321</v>
       </c>
       <c r="E328" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F328">
         <v>0.4</v>
@@ -8421,7 +8415,7 @@
         <v>322</v>
       </c>
       <c r="E329" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F329">
         <v>0.4</v>
@@ -8441,7 +8435,7 @@
         <v>323</v>
       </c>
       <c r="E330" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F330">
         <v>0.4</v>
@@ -8461,7 +8455,7 @@
         <v>324</v>
       </c>
       <c r="E331" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F331">
         <v>0.4</v>
@@ -8481,7 +8475,7 @@
         <v>325</v>
       </c>
       <c r="E332" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F332">
         <v>0.4</v>
@@ -8501,7 +8495,7 @@
         <v>326</v>
       </c>
       <c r="E333" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F333">
         <v>0.4</v>
@@ -8521,7 +8515,7 @@
         <v>327</v>
       </c>
       <c r="E334" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F334">
         <v>0.4</v>
@@ -8541,7 +8535,7 @@
         <v>328</v>
       </c>
       <c r="E335" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F335">
         <v>0.4</v>
@@ -8561,7 +8555,7 @@
         <v>329</v>
       </c>
       <c r="E336" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F336">
         <v>0.4</v>
@@ -8581,7 +8575,7 @@
         <v>330</v>
       </c>
       <c r="E337" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F337">
         <v>0.4</v>
@@ -8601,7 +8595,7 @@
         <v>331</v>
       </c>
       <c r="E338" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F338">
         <v>0.4</v>
@@ -8621,7 +8615,7 @@
         <v>332</v>
       </c>
       <c r="E339" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F339">
         <v>0.4</v>
@@ -8641,7 +8635,7 @@
         <v>333</v>
       </c>
       <c r="E340" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F340">
         <v>0.4</v>
@@ -8661,7 +8655,7 @@
         <v>334</v>
       </c>
       <c r="E341" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F341">
         <v>0.4</v>
@@ -8681,7 +8675,7 @@
         <v>335</v>
       </c>
       <c r="E342" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F342">
         <v>0.4</v>
@@ -8701,7 +8695,7 @@
         <v>336</v>
       </c>
       <c r="E343" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F343">
         <v>0.4</v>
@@ -8721,7 +8715,7 @@
         <v>337</v>
       </c>
       <c r="E344" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F344">
         <v>0.4</v>
@@ -8741,7 +8735,7 @@
         <v>338</v>
       </c>
       <c r="E345" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F345">
         <v>0.4</v>
@@ -8761,7 +8755,7 @@
         <v>339</v>
       </c>
       <c r="E346" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F346">
         <v>0.4</v>
@@ -8781,7 +8775,7 @@
         <v>340</v>
       </c>
       <c r="E347" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F347">
         <v>0.4</v>
@@ -8801,7 +8795,7 @@
         <v>341</v>
       </c>
       <c r="E348" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F348">
         <v>0.4</v>
@@ -8821,7 +8815,7 @@
         <v>342</v>
       </c>
       <c r="E349" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F349">
         <v>0.4</v>
@@ -8841,7 +8835,7 @@
         <v>343</v>
       </c>
       <c r="E350" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F350">
         <v>0.4</v>
@@ -8861,7 +8855,7 @@
         <v>344</v>
       </c>
       <c r="E351" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F351">
         <v>0.4</v>
@@ -8881,7 +8875,7 @@
         <v>345</v>
       </c>
       <c r="E352" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F352">
         <v>0.4</v>
@@ -8901,7 +8895,7 @@
         <v>346</v>
       </c>
       <c r="E353" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F353">
         <v>0.4</v>
@@ -8921,7 +8915,7 @@
         <v>347</v>
       </c>
       <c r="E354" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F354">
         <v>0.4</v>
@@ -8941,7 +8935,7 @@
         <v>348</v>
       </c>
       <c r="E355" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F355">
         <v>0.4</v>
@@ -8961,7 +8955,7 @@
         <v>349</v>
       </c>
       <c r="E356" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F356">
         <v>0.4</v>
@@ -8981,7 +8975,7 @@
         <v>350</v>
       </c>
       <c r="E357" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F357">
         <v>0.4</v>
@@ -9001,7 +8995,7 @@
         <v>351</v>
       </c>
       <c r="E358" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F358">
         <v>0.4</v>
@@ -9021,7 +9015,7 @@
         <v>352</v>
       </c>
       <c r="E359" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F359">
         <v>0.4</v>
@@ -9041,7 +9035,7 @@
         <v>353</v>
       </c>
       <c r="E360" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F360">
         <v>0.4</v>
@@ -9061,7 +9055,7 @@
         <v>354</v>
       </c>
       <c r="E361" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F361">
         <v>0.4</v>
@@ -9081,7 +9075,7 @@
         <v>355</v>
       </c>
       <c r="E362" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F362">
         <v>0.4</v>
@@ -9101,7 +9095,7 @@
         <v>356</v>
       </c>
       <c r="E363" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F363">
         <v>0.4</v>
@@ -9121,7 +9115,7 @@
         <v>357</v>
       </c>
       <c r="E364" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F364">
         <v>0.4</v>
@@ -9141,7 +9135,7 @@
         <v>358</v>
       </c>
       <c r="E365" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F365">
         <v>0.4</v>
@@ -9161,7 +9155,7 @@
         <v>359</v>
       </c>
       <c r="E366" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F366">
         <v>0.4</v>
@@ -9181,7 +9175,7 @@
         <v>360</v>
       </c>
       <c r="E367" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F367">
         <v>0.4</v>
@@ -9201,7 +9195,7 @@
         <v>361</v>
       </c>
       <c r="E368" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F368">
         <v>0.4</v>
@@ -9221,7 +9215,7 @@
         <v>362</v>
       </c>
       <c r="E369" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F369">
         <v>0.4</v>
@@ -9241,7 +9235,7 @@
         <v>363</v>
       </c>
       <c r="E370" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F370">
         <v>0.4</v>
@@ -9261,7 +9255,7 @@
         <v>364</v>
       </c>
       <c r="E371" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F371">
         <v>0.4</v>
@@ -9281,7 +9275,7 @@
         <v>365</v>
       </c>
       <c r="E372" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F372">
         <v>0.4</v>
@@ -9301,10 +9295,10 @@
         <v>366</v>
       </c>
       <c r="E373" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F373">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -9318,13 +9312,13 @@
         <v>26</v>
       </c>
       <c r="D374" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E374" t="s">
         <v>486</v>
       </c>
       <c r="F374">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -9341,7 +9335,7 @@
         <v>367</v>
       </c>
       <c r="E375" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F375">
         <v>0.4</v>
@@ -9361,7 +9355,7 @@
         <v>368</v>
       </c>
       <c r="E376" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F376">
         <v>0.4</v>
@@ -9381,7 +9375,7 @@
         <v>369</v>
       </c>
       <c r="E377" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F377">
         <v>0.4</v>
@@ -9401,7 +9395,7 @@
         <v>370</v>
       </c>
       <c r="E378" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F378">
         <v>0.4</v>
@@ -9421,7 +9415,7 @@
         <v>371</v>
       </c>
       <c r="E379" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F379">
         <v>0.4</v>
@@ -9441,7 +9435,7 @@
         <v>372</v>
       </c>
       <c r="E380" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F380">
         <v>0.4</v>
@@ -9461,7 +9455,7 @@
         <v>373</v>
       </c>
       <c r="E381" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F381">
         <v>0.4</v>
@@ -9481,7 +9475,7 @@
         <v>374</v>
       </c>
       <c r="E382" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F382">
         <v>0.4</v>
@@ -9501,7 +9495,7 @@
         <v>375</v>
       </c>
       <c r="E383" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F383">
         <v>0.4</v>
@@ -9521,7 +9515,7 @@
         <v>376</v>
       </c>
       <c r="E384" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F384">
         <v>0.4</v>
@@ -9541,7 +9535,7 @@
         <v>377</v>
       </c>
       <c r="E385" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F385">
         <v>0.4</v>
@@ -9561,7 +9555,7 @@
         <v>378</v>
       </c>
       <c r="E386" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F386">
         <v>0.4</v>
@@ -9581,7 +9575,7 @@
         <v>379</v>
       </c>
       <c r="E387" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F387">
         <v>0.4</v>
@@ -9601,7 +9595,7 @@
         <v>380</v>
       </c>
       <c r="E388" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F388">
         <v>0.4</v>
@@ -9621,7 +9615,7 @@
         <v>381</v>
       </c>
       <c r="E389" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F389">
         <v>0.4</v>
@@ -9641,7 +9635,7 @@
         <v>382</v>
       </c>
       <c r="E390" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F390">
         <v>0.4</v>
@@ -9661,7 +9655,7 @@
         <v>383</v>
       </c>
       <c r="E391" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F391">
         <v>0.4</v>
@@ -9681,10 +9675,10 @@
         <v>384</v>
       </c>
       <c r="E392" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F392">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -9704,7 +9698,7 @@
         <v>486</v>
       </c>
       <c r="F393">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="394" spans="1:6">
@@ -9721,7 +9715,7 @@
         <v>386</v>
       </c>
       <c r="E394" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F394">
         <v>0.4</v>
@@ -9741,7 +9735,7 @@
         <v>387</v>
       </c>
       <c r="E395" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F395">
         <v>0.4</v>
@@ -9761,7 +9755,7 @@
         <v>388</v>
       </c>
       <c r="E396" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F396">
         <v>0.4</v>
@@ -9781,7 +9775,7 @@
         <v>389</v>
       </c>
       <c r="E397" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F397">
         <v>0.4</v>
@@ -9801,7 +9795,7 @@
         <v>390</v>
       </c>
       <c r="E398" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F398">
         <v>0.4</v>
@@ -9821,7 +9815,7 @@
         <v>391</v>
       </c>
       <c r="E399" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F399">
         <v>0.4</v>
@@ -9841,7 +9835,7 @@
         <v>392</v>
       </c>
       <c r="E400" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F400">
         <v>0.4</v>
@@ -9861,7 +9855,7 @@
         <v>393</v>
       </c>
       <c r="E401" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F401">
         <v>0.4</v>
@@ -9881,7 +9875,7 @@
         <v>394</v>
       </c>
       <c r="E402" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F402">
         <v>0.4</v>
@@ -9901,7 +9895,7 @@
         <v>395</v>
       </c>
       <c r="E403" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F403">
         <v>0.4</v>
@@ -9921,7 +9915,7 @@
         <v>396</v>
       </c>
       <c r="E404" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F404">
         <v>0.4</v>
@@ -9941,7 +9935,7 @@
         <v>397</v>
       </c>
       <c r="E405" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F405">
         <v>0.4</v>
@@ -9961,7 +9955,7 @@
         <v>398</v>
       </c>
       <c r="E406" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F406">
         <v>0.4</v>
@@ -9981,7 +9975,7 @@
         <v>399</v>
       </c>
       <c r="E407" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F407">
         <v>0.4</v>
@@ -10001,7 +9995,7 @@
         <v>400</v>
       </c>
       <c r="E408" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F408">
         <v>0.4</v>
@@ -10021,7 +10015,7 @@
         <v>401</v>
       </c>
       <c r="E409" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F409">
         <v>0.4</v>
@@ -10041,7 +10035,7 @@
         <v>402</v>
       </c>
       <c r="E410" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F410">
         <v>0.4</v>
@@ -10061,7 +10055,7 @@
         <v>403</v>
       </c>
       <c r="E411" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F411">
         <v>0.4</v>
@@ -10081,7 +10075,7 @@
         <v>404</v>
       </c>
       <c r="E412" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F412">
         <v>0.4</v>
@@ -10101,7 +10095,7 @@
         <v>405</v>
       </c>
       <c r="E413" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F413">
         <v>0.4</v>
@@ -10121,7 +10115,7 @@
         <v>406</v>
       </c>
       <c r="E414" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F414">
         <v>0.4</v>
@@ -10141,10 +10135,10 @@
         <v>407</v>
       </c>
       <c r="E415" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F415">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:6">
@@ -10164,7 +10158,7 @@
         <v>486</v>
       </c>
       <c r="F416">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -10181,7 +10175,7 @@
         <v>409</v>
       </c>
       <c r="E417" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F417">
         <v>0.4</v>
@@ -10201,7 +10195,7 @@
         <v>410</v>
       </c>
       <c r="E418" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F418">
         <v>0.4</v>
@@ -10221,7 +10215,7 @@
         <v>411</v>
       </c>
       <c r="E419" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F419">
         <v>0.4</v>
@@ -10241,7 +10235,7 @@
         <v>412</v>
       </c>
       <c r="E420" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F420">
         <v>0.4</v>
@@ -10261,7 +10255,7 @@
         <v>413</v>
       </c>
       <c r="E421" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F421">
         <v>0.4</v>
@@ -10281,7 +10275,7 @@
         <v>414</v>
       </c>
       <c r="E422" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F422">
         <v>0.4</v>
@@ -10301,7 +10295,7 @@
         <v>415</v>
       </c>
       <c r="E423" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F423">
         <v>0.4</v>
@@ -10321,7 +10315,7 @@
         <v>416</v>
       </c>
       <c r="E424" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F424">
         <v>0.4</v>
@@ -10341,7 +10335,7 @@
         <v>417</v>
       </c>
       <c r="E425" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F425">
         <v>0.4</v>
@@ -10361,7 +10355,7 @@
         <v>418</v>
       </c>
       <c r="E426" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F426">
         <v>0.4</v>
@@ -10381,7 +10375,7 @@
         <v>419</v>
       </c>
       <c r="E427" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F427">
         <v>0.4</v>
@@ -10401,7 +10395,7 @@
         <v>420</v>
       </c>
       <c r="E428" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F428">
         <v>0.4</v>
@@ -10421,7 +10415,7 @@
         <v>421</v>
       </c>
       <c r="E429" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F429">
         <v>0.4</v>
@@ -10441,7 +10435,7 @@
         <v>422</v>
       </c>
       <c r="E430" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F430">
         <v>0.4</v>
@@ -10461,7 +10455,7 @@
         <v>423</v>
       </c>
       <c r="E431" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F431">
         <v>0.4</v>
@@ -10481,7 +10475,7 @@
         <v>424</v>
       </c>
       <c r="E432" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F432">
         <v>0.4</v>
@@ -10501,7 +10495,7 @@
         <v>425</v>
       </c>
       <c r="E433" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F433">
         <v>0.4</v>
@@ -10521,7 +10515,7 @@
         <v>426</v>
       </c>
       <c r="E434" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F434">
         <v>0.4</v>
@@ -10541,7 +10535,7 @@
         <v>427</v>
       </c>
       <c r="E435" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F435">
         <v>0.4</v>
@@ -10561,7 +10555,7 @@
         <v>428</v>
       </c>
       <c r="E436" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F436">
         <v>0.4</v>
@@ -10581,7 +10575,7 @@
         <v>429</v>
       </c>
       <c r="E437" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F437">
         <v>0.4</v>
@@ -10601,7 +10595,7 @@
         <v>430</v>
       </c>
       <c r="E438" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F438">
         <v>0.4</v>
@@ -10621,7 +10615,7 @@
         <v>431</v>
       </c>
       <c r="E439" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F439">
         <v>0.4</v>
@@ -10641,7 +10635,7 @@
         <v>432</v>
       </c>
       <c r="E440" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F440">
         <v>0.4</v>
@@ -10661,7 +10655,7 @@
         <v>433</v>
       </c>
       <c r="E441" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F441">
         <v>0.4</v>
@@ -10681,7 +10675,7 @@
         <v>434</v>
       </c>
       <c r="E442" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F442">
         <v>0.4</v>
@@ -10701,7 +10695,7 @@
         <v>435</v>
       </c>
       <c r="E443" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F443">
         <v>0.4</v>
@@ -10721,7 +10715,7 @@
         <v>436</v>
       </c>
       <c r="E444" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F444">
         <v>0.4</v>
@@ -10741,7 +10735,7 @@
         <v>437</v>
       </c>
       <c r="E445" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F445">
         <v>0.4</v>
@@ -10761,7 +10755,7 @@
         <v>438</v>
       </c>
       <c r="E446" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F446">
         <v>0.4</v>
@@ -10781,7 +10775,7 @@
         <v>439</v>
       </c>
       <c r="E447" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F447">
         <v>0.4</v>
@@ -10801,7 +10795,7 @@
         <v>440</v>
       </c>
       <c r="E448" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F448">
         <v>0.4</v>
@@ -10821,7 +10815,7 @@
         <v>441</v>
       </c>
       <c r="E449" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F449">
         <v>0.4</v>
@@ -10841,10 +10835,10 @@
         <v>442</v>
       </c>
       <c r="E450" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F450">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -10858,13 +10852,13 @@
         <v>26</v>
       </c>
       <c r="D451" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E451" t="s">
         <v>486</v>
       </c>
       <c r="F451">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -10881,7 +10875,7 @@
         <v>443</v>
       </c>
       <c r="E452" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F452">
         <v>0.4</v>
@@ -10901,7 +10895,7 @@
         <v>444</v>
       </c>
       <c r="E453" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F453">
         <v>0.4</v>
@@ -10921,7 +10915,7 @@
         <v>445</v>
       </c>
       <c r="E454" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F454">
         <v>0.4</v>
@@ -10941,7 +10935,7 @@
         <v>446</v>
       </c>
       <c r="E455" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F455">
         <v>0.4</v>
@@ -10961,7 +10955,7 @@
         <v>447</v>
       </c>
       <c r="E456" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F456">
         <v>0.4</v>
@@ -10981,7 +10975,7 @@
         <v>448</v>
       </c>
       <c r="E457" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F457">
         <v>0.4</v>
@@ -11001,7 +10995,7 @@
         <v>449</v>
       </c>
       <c r="E458" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F458">
         <v>0.4</v>
@@ -11021,7 +11015,7 @@
         <v>450</v>
       </c>
       <c r="E459" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F459">
         <v>0.4</v>
@@ -11041,7 +11035,7 @@
         <v>451</v>
       </c>
       <c r="E460" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F460">
         <v>0.4</v>
@@ -11055,13 +11049,13 @@
         <v>10</v>
       </c>
       <c r="C461" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D461" t="s">
         <v>452</v>
       </c>
       <c r="E461" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F461">
         <v>0.4</v>
@@ -11081,10 +11075,10 @@
         <v>453</v>
       </c>
       <c r="E462" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F462">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="463" spans="1:6">
@@ -11098,13 +11092,13 @@
         <v>10</v>
       </c>
       <c r="D463" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E463" t="s">
         <v>486</v>
       </c>
       <c r="F463">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -11121,10 +11115,10 @@
         <v>454</v>
       </c>
       <c r="E464" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F464">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -11138,13 +11132,13 @@
         <v>10</v>
       </c>
       <c r="D465" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E465" t="s">
         <v>486</v>
       </c>
       <c r="F465">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -11161,10 +11155,10 @@
         <v>455</v>
       </c>
       <c r="E466" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F466">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="467" spans="1:6">
@@ -11178,13 +11172,13 @@
         <v>10</v>
       </c>
       <c r="D467" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E467" t="s">
         <v>486</v>
       </c>
       <c r="F467">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -11201,10 +11195,10 @@
         <v>456</v>
       </c>
       <c r="E468" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F468">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="469" spans="1:6">
@@ -11218,13 +11212,13 @@
         <v>10</v>
       </c>
       <c r="D469" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E469" t="s">
         <v>486</v>
       </c>
       <c r="F469">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -11241,7 +11235,7 @@
         <v>457</v>
       </c>
       <c r="E470" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F470">
         <v>0.4</v>
@@ -11261,10 +11255,10 @@
         <v>458</v>
       </c>
       <c r="E471" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F471">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -11281,7 +11275,7 @@
         <v>459</v>
       </c>
       <c r="E472" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F472">
         <v>4</v>
@@ -11298,13 +11292,13 @@
         <v>10</v>
       </c>
       <c r="D473" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E473" t="s">
         <v>486</v>
       </c>
       <c r="F473">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -11315,13 +11309,13 @@
         <v>10</v>
       </c>
       <c r="C474" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D474" t="s">
         <v>460</v>
       </c>
       <c r="E474" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F474">
         <v>0.4</v>
@@ -11341,7 +11335,7 @@
         <v>461</v>
       </c>
       <c r="E475" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F475">
         <v>0.4</v>
@@ -11361,10 +11355,10 @@
         <v>462</v>
       </c>
       <c r="E476" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F476">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="477" spans="1:6">
@@ -11378,13 +11372,13 @@
         <v>27</v>
       </c>
       <c r="D477" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E477" t="s">
         <v>486</v>
       </c>
       <c r="F477">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -11401,10 +11395,10 @@
         <v>463</v>
       </c>
       <c r="E478" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F478">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -11418,13 +11412,13 @@
         <v>27</v>
       </c>
       <c r="D479" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E479" t="s">
         <v>486</v>
       </c>
       <c r="F479">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -11441,7 +11435,7 @@
         <v>464</v>
       </c>
       <c r="E480" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F480">
         <v>0.4</v>
@@ -11461,10 +11455,10 @@
         <v>465</v>
       </c>
       <c r="E481" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F481">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -11478,13 +11472,13 @@
         <v>27</v>
       </c>
       <c r="D482" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E482" t="s">
         <v>486</v>
       </c>
       <c r="F482">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -11501,10 +11495,10 @@
         <v>466</v>
       </c>
       <c r="E483" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F483">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -11518,13 +11512,13 @@
         <v>27</v>
       </c>
       <c r="D484" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E484" t="s">
         <v>486</v>
       </c>
       <c r="F484">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="485" spans="1:6">
@@ -11541,10 +11535,10 @@
         <v>467</v>
       </c>
       <c r="E485" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F485">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -11558,13 +11552,13 @@
         <v>27</v>
       </c>
       <c r="D486" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E486" t="s">
         <v>486</v>
       </c>
       <c r="F486">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -11575,16 +11569,16 @@
         <v>10</v>
       </c>
       <c r="C487" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D487" t="s">
         <v>468</v>
       </c>
       <c r="E487" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F487">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -11598,13 +11592,13 @@
         <v>28</v>
       </c>
       <c r="D488" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E488" t="s">
         <v>486</v>
       </c>
       <c r="F488">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="489" spans="1:6">
@@ -11621,7 +11615,7 @@
         <v>469</v>
       </c>
       <c r="E489" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F489">
         <v>0.4</v>
@@ -11641,7 +11635,7 @@
         <v>470</v>
       </c>
       <c r="E490" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F490">
         <v>0.4</v>
@@ -11661,10 +11655,10 @@
         <v>471</v>
       </c>
       <c r="E491" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F491">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -11678,13 +11672,13 @@
         <v>28</v>
       </c>
       <c r="D492" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E492" t="s">
         <v>486</v>
       </c>
       <c r="F492">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="493" spans="1:6">
@@ -11701,10 +11695,10 @@
         <v>472</v>
       </c>
       <c r="E493" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F493">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -11718,13 +11712,13 @@
         <v>28</v>
       </c>
       <c r="D494" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E494" t="s">
         <v>486</v>
       </c>
       <c r="F494">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="495" spans="1:6">
@@ -11741,10 +11735,10 @@
         <v>473</v>
       </c>
       <c r="E495" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F495">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -11764,7 +11758,7 @@
         <v>486</v>
       </c>
       <c r="F496">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -11781,10 +11775,10 @@
         <v>475</v>
       </c>
       <c r="E497" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F497">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -11801,7 +11795,7 @@
         <v>476</v>
       </c>
       <c r="E498" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F498">
         <v>4</v>
@@ -11818,13 +11812,13 @@
         <v>28</v>
       </c>
       <c r="D499" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E499" t="s">
         <v>486</v>
       </c>
       <c r="F499">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="500" spans="1:6">
@@ -11841,10 +11835,10 @@
         <v>477</v>
       </c>
       <c r="E500" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F500">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="501" spans="1:6">
@@ -11861,7 +11855,7 @@
         <v>478</v>
       </c>
       <c r="E501" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F501">
         <v>4</v>
@@ -11878,13 +11872,13 @@
         <v>28</v>
       </c>
       <c r="D502" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E502" t="s">
         <v>486</v>
       </c>
       <c r="F502">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="503" spans="1:6">
@@ -11901,10 +11895,10 @@
         <v>479</v>
       </c>
       <c r="E503" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F503">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="504" spans="1:6">
@@ -11918,13 +11912,13 @@
         <v>28</v>
       </c>
       <c r="D504" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E504" t="s">
         <v>486</v>
       </c>
       <c r="F504">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="505" spans="1:6">
@@ -11941,10 +11935,10 @@
         <v>480</v>
       </c>
       <c r="E505" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F505">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -11958,13 +11952,13 @@
         <v>28</v>
       </c>
       <c r="D506" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E506" t="s">
         <v>486</v>
       </c>
       <c r="F506">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="507" spans="1:6">
@@ -11981,10 +11975,10 @@
         <v>481</v>
       </c>
       <c r="E507" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F507">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="508" spans="1:6">
@@ -12001,7 +11995,7 @@
         <v>482</v>
       </c>
       <c r="E508" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F508">
         <v>4</v>
@@ -12018,13 +12012,13 @@
         <v>28</v>
       </c>
       <c r="D509" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E509" t="s">
         <v>486</v>
       </c>
       <c r="F509">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="510" spans="1:6">
@@ -12041,10 +12035,10 @@
         <v>483</v>
       </c>
       <c r="E510" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F510">
-        <v>0.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="511" spans="1:6">
@@ -12058,13 +12052,13 @@
         <v>28</v>
       </c>
       <c r="D511" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E511" t="s">
         <v>486</v>
       </c>
       <c r="F511">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="512" spans="1:6">
@@ -12081,29 +12075,9 @@
         <v>484</v>
       </c>
       <c r="E512" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F512">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="513" spans="1:6">
-      <c r="A513" t="s">
-        <v>7</v>
-      </c>
-      <c r="B513" t="s">
-        <v>10</v>
-      </c>
-      <c r="C513" t="s">
-        <v>28</v>
-      </c>
-      <c r="D513" t="s">
-        <v>485</v>
-      </c>
-      <c r="E513" t="s">
-        <v>486</v>
-      </c>
-      <c r="F513">
         <v>4</v>
       </c>
     </row>
